--- a/input/MHE_Results.xlsx
+++ b/input/MHE_Results.xlsx
@@ -4,27 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
-    <sheet name="Page Number" sheetId="1" r:id="rId1"/>
-    <sheet name="Bug" sheetId="2" r:id="rId2"/>
-    <sheet name="Extracted Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Page break" sheetId="4" r:id="rId4"/>
-    <sheet name="Text Font" sheetId="5" r:id="rId5"/>
+    <sheet name="describedMath" sheetId="14" r:id="rId1"/>
+    <sheet name="auditory" sheetId="13" r:id="rId2"/>
+    <sheet name="longDescription" sheetId="12" r:id="rId3"/>
+    <sheet name="MathML" sheetId="11" r:id="rId4"/>
+    <sheet name="alternativeText_data" sheetId="10" r:id="rId5"/>
+    <sheet name="alternativeText_length" sheetId="9" r:id="rId6"/>
+    <sheet name="StructuralNavigation" sheetId="8" r:id="rId7"/>
+    <sheet name="flashing" sheetId="7" r:id="rId8"/>
+    <sheet name="visual" sheetId="6" r:id="rId9"/>
+    <sheet name="Page Number" sheetId="1" r:id="rId10"/>
+    <sheet name="Bug" sheetId="2" r:id="rId11"/>
+    <sheet name="Extracted Data" sheetId="3" r:id="rId12"/>
+    <sheet name="printPageNumbers" sheetId="4" r:id="rId13"/>
+    <sheet name="Text Font" sheetId="5" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
-  <si>
-    <t>Page heading</t>
-  </si>
-  <si>
-    <t>Page number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="16">
   <si>
     <t>Criteria</t>
   </si>
@@ -41,16 +44,31 @@
     <t>Code Snippet Extracted</t>
   </si>
   <si>
+    <t>Other Detail</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Other detail</t>
+  </si>
+  <si>
+    <t>Long text</t>
+  </si>
+  <si>
+    <t>Other Detail/alt length</t>
+  </si>
+  <si>
     <t>Rationale</t>
   </si>
   <si>
     <t>Recommendation</t>
   </si>
   <si>
-    <t>Other Detail/alt length</t>
+    <t>Page heading</t>
   </si>
   <si>
-    <t>Message</t>
+    <t>Page number</t>
   </si>
   <si>
     <t>Page breaks....</t>
@@ -93,23 +111,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,17 +134,77 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,28 +226,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,52 +253,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -251,49 +269,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,133 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,30 +468,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,16 +497,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,13 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,148 +565,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,6 +1034,54 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="16.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="23.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="23.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="9.42857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1030,10 +1096,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G1"/>
@@ -1062,25 +1128,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1155,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1110,25 +1176,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1137,13 +1203,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1154,16 +1220,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1172,12 +1238,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1192,26 +1258,407 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="16.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="23.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="23.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="9.42857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="16.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="23.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="23.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="9.42857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="16.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="23.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="23.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="9.42857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="16.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="23.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="23.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="9.42857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="16.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="23.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="23.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="9.42857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="3" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="22.3619047619048" customWidth="1"/>
+    <col min="6" max="6" width="9.78095238095238" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="3" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="22.3619047619048" customWidth="1"/>
+    <col min="6" max="6" width="9.78095238095238" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="3" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="22.3619047619048" customWidth="1"/>
+    <col min="6" max="6" width="9.78095238095238" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>